--- a/adjust number/output.xlsx
+++ b/adjust number/output.xlsx
@@ -11,6 +11,14 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>new_channelmix</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,834 +356,1671 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1">
-        <v>1613.939679991598</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>124.3153169800118</v>
+        <v>813.9296389879642</v>
       </c>
       <c r="C1">
-        <v>11.450279173847</v>
+        <v>63.25567072998688</v>
       </c>
       <c r="D1">
-        <v>3809.010711838654</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>1619.899265085856</v>
+        <v>20764.01462770317</v>
       </c>
       <c r="F1">
-        <v>44.96739215106984</v>
+        <v>276.5514907163062</v>
       </c>
       <c r="G1">
-        <v>1808.167023820864</v>
+        <v>23045.68409275984</v>
       </c>
       <c r="H1">
-        <v>9.250330958099001</v>
+        <v>24.56447910274109</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>10596.5941096127</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1597.206944780609</v>
+        <v>2226.058121745334</v>
       </c>
       <c r="C2">
-        <v>482.0554386227293</v>
+        <v>173.0011942433001</v>
       </c>
       <c r="D2">
-        <v>27958.73235864079</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16115.34297711759</v>
+        <v>56788.57383730322</v>
       </c>
       <c r="F2">
-        <v>365.2618874682539</v>
+        <v>756.354926152181</v>
       </c>
       <c r="G2">
-        <v>3499.923569510837</v>
+        <v>63028.82926053993</v>
       </c>
       <c r="H2">
-        <v>18.88271424649054</v>
+        <v>67.18266001603236</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>1231.573881419041</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>99.997558121298</v>
+        <v>416.9697783799148</v>
       </c>
       <c r="C3">
-        <v>35.79747618626205</v>
+        <v>32.40538462065457</v>
       </c>
       <c r="D3">
-        <v>4940.00213640639</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2924.644559530406</v>
+        <v>10637.24204509369</v>
       </c>
       <c r="F3">
-        <v>29.5988544320055</v>
+        <v>141.6751624108364</v>
       </c>
       <c r="G3">
-        <v>1002.396873129913</v>
+        <v>11806.12343926905</v>
       </c>
       <c r="H3">
-        <v>2.988660774685367</v>
+        <v>12.58419022585743</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>1983.746037647841</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>193.9867799351449</v>
+        <v>443.4385936604206</v>
       </c>
       <c r="C4">
-        <v>32.11017342486065</v>
+        <v>34.4624453096821</v>
       </c>
       <c r="D4">
-        <v>4111.985918027812</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2727.946057797596</v>
+        <v>11312.48329610129</v>
       </c>
       <c r="F4">
-        <v>51.99382419453604</v>
+        <v>150.668556891986</v>
       </c>
       <c r="G4">
-        <v>1513.506272305227</v>
+        <v>12555.56408627953</v>
       </c>
       <c r="H4">
-        <v>4.72493666698341</v>
+        <v>13.38302175709487</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>562.9660650454722</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>26.83889416726866</v>
+        <v>367.6324856458484</v>
       </c>
       <c r="C5">
-        <v>19.3946328537061</v>
+        <v>28.57106849011589</v>
       </c>
       <c r="D5">
-        <v>3354.624567559312</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1226.181311615905</v>
+        <v>9378.607122675565</v>
       </c>
       <c r="F5">
-        <v>14.93356677184788</v>
+        <v>124.9116718092679</v>
       </c>
       <c r="G5">
-        <v>781.4665304307476</v>
+        <v>10409.18246565484</v>
       </c>
       <c r="H5">
-        <v>2.594431555741143</v>
+        <v>11.09518572436425</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>4990.076837330786</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>484.8621095716101</v>
+        <v>1583.388773560697</v>
       </c>
       <c r="C6">
-        <v>113.514019650079</v>
+        <v>123.0552545333643</v>
       </c>
       <c r="D6">
-        <v>14501.80823152535</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>7950.658837364846</v>
+        <v>40393.55010641339</v>
       </c>
       <c r="F6">
-        <v>150.5547820264457</v>
+        <v>537.9930951478103</v>
       </c>
       <c r="G6">
-        <v>3850.933775147626</v>
+        <v>44832.2259364754</v>
       </c>
       <c r="H6">
-        <v>14.59140738325813</v>
+        <v>47.78683386933615</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>958.6261981735265</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>72.99414126963468</v>
+        <v>457.2248118721399</v>
       </c>
       <c r="C7">
-        <v>27.40149226237552</v>
+        <v>35.53386037806145</v>
       </c>
       <c r="D7">
-        <v>5171.969994730329</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2517.906277439958</v>
+        <v>11664.18106320162</v>
       </c>
       <c r="F7">
-        <v>16.38253898307228</v>
+        <v>155.3527445848335</v>
       </c>
       <c r="G7">
-        <v>1132.11128253114</v>
+        <v>12945.90842874159</v>
       </c>
       <c r="H7">
-        <v>4.608074609963975</v>
+        <v>13.79909122175853</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>904.9158357872529</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>16.66583179369274</v>
+        <v>378.0173796793483</v>
       </c>
       <c r="C8">
-        <v>3.046515499067414</v>
+        <v>29.37814493270085</v>
       </c>
       <c r="D8">
-        <v>2239.767647913094</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>705.4358087591013</v>
+        <v>9643.534312066105</v>
       </c>
       <c r="F8">
-        <v>9.866031501517982</v>
+        <v>128.440180648762</v>
       </c>
       <c r="G8">
-        <v>1673.81945268154</v>
+        <v>10703.22137979292</v>
       </c>
       <c r="H8">
-        <v>4.482876064734103</v>
+        <v>11.40860288016076</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>199.0647642036136</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>15.64166137226595</v>
+        <v>99.47064006303518</v>
       </c>
       <c r="C9">
-        <v>3.91451382816794</v>
+        <v>7.73049874796541</v>
       </c>
       <c r="D9">
-        <v>1337.446401588376</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>398.2125347140043</v>
+        <v>2537.577852385347</v>
       </c>
       <c r="F9">
-        <v>7.801238800631798</v>
+        <v>33.79745923264541</v>
       </c>
       <c r="G9">
-        <v>235.3828547631237</v>
+        <v>2816.421515559562</v>
       </c>
       <c r="H9">
-        <v>1.53603072981676</v>
+        <v>3.002034011444619</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>1839.426339462923</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>142.2400927598148</v>
+        <v>1103.820156581637</v>
       </c>
       <c r="C10">
-        <v>3.737715813015966</v>
+        <v>85.78491435287698</v>
       </c>
       <c r="D10">
-        <v>3517.721538397159</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2086.295569294086</v>
+        <v>28159.36019495861</v>
       </c>
       <c r="F10">
-        <v>47.17635303026108</v>
+        <v>375.0485240529154</v>
       </c>
       <c r="G10">
-        <v>2494.624682609121</v>
+        <v>31253.67280571197</v>
       </c>
       <c r="H10">
-        <v>9.7777086336186</v>
+        <v>33.31340434198757</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>692.6200707360308</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>30.39850803450842</v>
+        <v>611.5689425337901</v>
       </c>
       <c r="C11">
-        <v>9.129110563747153</v>
+        <v>47.52892855174149</v>
       </c>
       <c r="D11">
-        <v>1575.057910067985</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>761.9561671728854</v>
+        <v>15601.62679959656</v>
       </c>
       <c r="F11">
-        <v>10.23379549866158</v>
+        <v>207.7947461697186</v>
       </c>
       <c r="G11">
-        <v>1060.805839600552</v>
+        <v>17316.02337040013</v>
       </c>
       <c r="H11">
-        <v>2.798598325629521</v>
+        <v>18.4572127480652</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>3892.008768017953</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>173.2401940467814</v>
+        <v>1375.944182989078</v>
       </c>
       <c r="C12">
-        <v>22.36228037250045</v>
+        <v>106.9334104729475</v>
       </c>
       <c r="D12">
-        <v>10239.72962926098</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>5978.842484090604</v>
+        <v>35101.46795736822</v>
       </c>
       <c r="F12">
-        <v>48.54490290672991</v>
+        <v>467.5089795491358</v>
       </c>
       <c r="G12">
-        <v>4959.602421877928</v>
+        <v>38958.61933454634</v>
       </c>
       <c r="H12">
-        <v>15.66931942652308</v>
+        <v>41.52613507427904</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>2834.544043823335</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>145.8861589338786</v>
+        <v>914.7390981424261</v>
       </c>
       <c r="C13">
-        <v>15.9730223434048</v>
+        <v>71.09021766044583</v>
       </c>
       <c r="D13">
-        <v>7034.891198126161</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>3537.313832850837</v>
+        <v>23335.74685642109</v>
       </c>
       <c r="F13">
-        <v>54.9113270035776</v>
+        <v>310.803844816761</v>
       </c>
       <c r="G13">
-        <v>3395.728453147962</v>
+        <v>25900.01306414905</v>
       </c>
       <c r="H13">
-        <v>11.7519637708444</v>
+        <v>27.60691881022916</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>1559.995187720826</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>75.223195480409</v>
+        <v>715.4540671685569</v>
       </c>
       <c r="C14">
-        <v>1.597315925829659</v>
+        <v>55.60250509063153</v>
       </c>
       <c r="D14">
-        <v>5141.768547140736</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>2861.136350925416</v>
+        <v>18251.82178475419</v>
       </c>
       <c r="F14">
-        <v>23.07887149010029</v>
+        <v>243.0921290205461</v>
       </c>
       <c r="G14">
-        <v>2305.149292614062</v>
+        <v>20257.4370376142</v>
       </c>
       <c r="H14">
-        <v>7.051238702621733</v>
+        <v>21.59247635186931</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>413.0950708561361</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>9.10621530616719</v>
+        <v>269.5187568241242</v>
       </c>
       <c r="C15">
-        <v>0.7976289545888379</v>
+        <v>20.94602398116419</v>
       </c>
       <c r="D15">
-        <v>2340.025284354561</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1496.759524067791</v>
+        <v>6875.645192248912</v>
       </c>
       <c r="F15">
-        <v>5.563584592535006</v>
+        <v>91.57525467237517</v>
       </c>
       <c r="G15">
-        <v>1337.522845764666</v>
+        <v>7631.180668841541</v>
       </c>
       <c r="H15">
-        <v>3.129846103554267</v>
+        <v>8.134103431882592</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>3984.948315740556</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>346.9118026000054</v>
+        <v>1570.669992192142</v>
       </c>
       <c r="C16">
-        <v>83.89084147856259</v>
+        <v>122.0667967996757</v>
       </c>
       <c r="D16">
-        <v>11049.32799677374</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>5290.337580747467</v>
+        <v>40069.0835312539</v>
       </c>
       <c r="F16">
-        <v>80.26834938447981</v>
+        <v>533.6715939036216</v>
       </c>
       <c r="G16">
-        <v>2169.028162893417</v>
+        <v>44472.10510609374</v>
       </c>
       <c r="H16">
-        <v>10.28695038177695</v>
+        <v>47.40297975692335</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>1365.805949092978</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>118.3812732607253</v>
+        <v>329.1142985425014</v>
       </c>
       <c r="C17">
-        <v>28.90001390687619</v>
+        <v>25.57757415864656</v>
       </c>
       <c r="D17">
-        <v>3921.266644853971</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1449.290616251071</v>
+        <v>8395.976484674764</v>
       </c>
       <c r="F17">
-        <v>33.59700672251102</v>
+        <v>111.8242235178342</v>
       </c>
       <c r="G17">
-        <v>1196.670880533287</v>
+        <v>9318.574716177518</v>
       </c>
       <c r="H17">
-        <v>7.087615378579057</v>
+        <v>9.932702928735733</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>467.2434324761131</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>31.47914647570211</v>
+        <v>212.1847338412653</v>
       </c>
       <c r="C18">
-        <v>3.422870335677819</v>
+        <v>16.49023086870468</v>
       </c>
       <c r="D18">
-        <v>1080.514424921133</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>510.4769559450853</v>
+        <v>5413.007103087551</v>
       </c>
       <c r="F18">
-        <v>10.23216293684113</v>
+        <v>72.09468931983727</v>
       </c>
       <c r="G18">
-        <v>688.8328550344802</v>
+        <v>6007.819486082675</v>
       </c>
       <c r="H18">
-        <v>2.79815187496732</v>
+        <v>6.403756799967715</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>1694.012935230007</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>115.6161863799445</v>
+        <v>688.840514688978</v>
       </c>
       <c r="C19">
-        <v>22.82145187443771</v>
+        <v>53.53419594944253</v>
       </c>
       <c r="D19">
-        <v>3428.568239489709</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2014.648046735568</v>
+        <v>17572.88816873767</v>
       </c>
       <c r="F19">
-        <v>21.6034255441999</v>
+        <v>234.0495567158496</v>
       </c>
       <c r="G19">
-        <v>1377.252217294735</v>
+        <v>19503.89828727078</v>
       </c>
       <c r="H19">
-        <v>4.47749745139829</v>
+        <v>20.78927663727581</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>263.4123973305475</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>5.032412190676702</v>
+        <v>116.0973258065654</v>
       </c>
       <c r="C20">
-        <v>4.407975805262478</v>
+        <v>9.022664690013466</v>
       </c>
       <c r="D20">
-        <v>581.589791494924</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>202.0617651211204</v>
+        <v>2961.738282785881</v>
       </c>
       <c r="F20">
-        <v>0.8784659703285261</v>
+        <v>39.44676171260196</v>
       </c>
       <c r="G20">
-        <v>389.8875299655122</v>
+        <v>3287.191135930468</v>
       </c>
       <c r="H20">
-        <v>1.729662121628215</v>
+        <v>3.503829074470739</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>150.5359536328579</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>2.060015155284103</v>
+        <v>93.89825789871817</v>
       </c>
       <c r="C21">
-        <v>2.887043944385743</v>
+        <v>7.297433339749087</v>
       </c>
       <c r="D21">
-        <v>846.2996230856178</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>279.4897962436464</v>
+        <v>2395.421799541643</v>
       </c>
       <c r="F21">
-        <v>0.7191991211017147</v>
+        <v>31.90411302608761</v>
       </c>
       <c r="G21">
-        <v>216.3003325813869</v>
+        <v>2658.644537241566</v>
       </c>
       <c r="H21">
-        <v>0.7080362357193657</v>
+        <v>2.833858952236735</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>2744.646148804427</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>210.2048858702722</v>
+        <v>936.6848759518953</v>
       </c>
       <c r="C22">
-        <v>56.5838496387109</v>
+        <v>72.79576421942764</v>
       </c>
       <c r="D22">
-        <v>8194.224812657965</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>4367.188894603507</v>
+        <v>23895.60170089971</v>
       </c>
       <c r="F22">
-        <v>74.28237466174583</v>
+        <v>318.2604323120681</v>
       </c>
       <c r="G22">
-        <v>2236.058260546625</v>
+        <v>26521.38798200531</v>
       </c>
       <c r="H22">
-        <v>8.810773216746506</v>
+        <v>28.26924461159008</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>5520.225766650345</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>465.006250672425</v>
+        <v>2333.03700401029</v>
       </c>
       <c r="C23">
-        <v>138.1648959004213</v>
+        <v>181.3152064471414</v>
       </c>
       <c r="D23">
-        <v>17991.72719704375</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>8725.319495285625</v>
+        <v>59517.69312452668</v>
       </c>
       <c r="F23">
-        <v>102.6590086792521</v>
+        <v>792.7034849813248</v>
       </c>
       <c r="G23">
-        <v>4503.311027191923</v>
+        <v>66057.83988649549</v>
       </c>
       <c r="H23">
-        <v>19.58635857626338</v>
+        <v>70.41129353907202</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>840.9724760733901</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>108.6149617273479</v>
+        <v>678.2927913065208</v>
       </c>
       <c r="C24">
-        <v>16.59467829657794</v>
+        <v>52.71446499817592</v>
       </c>
       <c r="D24">
-        <v>2193.864164185554</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1070.036786820887</v>
+        <v>17303.80706871209</v>
       </c>
       <c r="F24">
-        <v>24.34433699951505</v>
+        <v>230.4657228248652</v>
       </c>
       <c r="G24">
-        <v>294.9145373993631</v>
+        <v>19205.24900688315</v>
       </c>
       <c r="H24">
-        <v>1.658058497365364</v>
+        <v>20.47094527520375</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>1340.206629954082</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>104.7202383445812</v>
+        <v>734.4689166967944</v>
       </c>
       <c r="C25">
-        <v>11.16667338662715</v>
+        <v>57.08027049334373</v>
       </c>
       <c r="D25">
-        <v>5464.857046071537</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>2809.834363683649</v>
+        <v>18736.90623780203</v>
       </c>
       <c r="F25">
-        <v>19.07492173011994</v>
+        <v>249.5528655890275</v>
       </c>
       <c r="G25">
-        <v>2068.533151769468</v>
+        <v>20795.82536297854</v>
       </c>
       <c r="H25">
-        <v>8.606975059935062</v>
+        <v>22.16634644027024</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>1985.931577635915</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>201.8387725899125</v>
+        <v>668.5411225189661</v>
       </c>
       <c r="C26">
-        <v>46.97110730209789</v>
+        <v>51.95660053379736</v>
       </c>
       <c r="D26">
-        <v>6635.188225086918</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>3241.206198989341</v>
+        <v>17055.03397623561</v>
       </c>
       <c r="F26">
-        <v>49.92467735935253</v>
+        <v>227.1523669633891</v>
       </c>
       <c r="G26">
-        <v>952.0996142514196</v>
+        <v>18929.13929482665</v>
       </c>
       <c r="H26">
-        <v>3.839826785043242</v>
+        <v>20.17663892158995</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>4653.769824687342</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>303.4039682162823</v>
+        <v>1391.720537688053</v>
       </c>
       <c r="C27">
-        <v>87.81526358211458</v>
+        <v>108.159491758547</v>
       </c>
       <c r="D27">
-        <v>10191.27563612137</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>5342.603672899212</v>
+        <v>35503.9357433413</v>
       </c>
       <c r="F27">
-        <v>86.73599127777506</v>
+        <v>472.869362315754</v>
       </c>
       <c r="G27">
-        <v>3577.793737993496</v>
+        <v>39405.31259783627</v>
       </c>
       <c r="H27">
-        <v>13.60190522240503</v>
+        <v>42.00226706008837</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>1110.30364874305</v>
+        <v>0</v>
       </c>
       <c r="B28">
-        <v>86.50856392048108</v>
+        <v>312.0895855015199</v>
       </c>
       <c r="C28">
-        <v>18.34536384918391</v>
+        <v>24.25447497315448</v>
       </c>
       <c r="D28">
-        <v>3155.961814546527</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1631.149934212951</v>
+        <v>7961.66205049968</v>
       </c>
       <c r="F28">
-        <v>23.04900788324066</v>
+        <v>106.0396820231236</v>
       </c>
       <c r="G28">
-        <v>552.3342953318667</v>
+        <v>8836.535311641041</v>
       </c>
       <c r="H28">
-        <v>2.347371512699466</v>
+        <v>9.41889536148048</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>11.17438972860136</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <v>0.2668540644986218</v>
+        <v>43.81918701940182</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>3.405468891882907</v>
       </c>
       <c r="D29">
-        <v>88.66984559827743</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>31.41034249849184</v>
+        <v>1117.863506452767</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>14.88858607884088</v>
       </c>
       <c r="G29">
-        <v>27.20341137621639</v>
+        <v>1240.700784046064</v>
       </c>
       <c r="H29">
-        <v>0.2751567339143571</v>
+        <v>1.32246751104381</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>1146.527331717379</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>48.64277601094039</v>
+        <v>336.6406328943062</v>
       </c>
       <c r="C30">
-        <v>14.98592387229814</v>
+        <v>26.16249367104263</v>
       </c>
       <c r="D30">
-        <v>2399.888875497643</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>709.4662988789335</v>
+        <v>8587.979465138988</v>
       </c>
       <c r="F30">
-        <v>23.71669178967667</v>
+        <v>114.3814703422759</v>
       </c>
       <c r="G30">
-        <v>2004.854004882367</v>
+        <v>9531.676089490138</v>
       </c>
       <c r="H30">
-        <v>6.918097350762048</v>
+        <v>10.15984846325028</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>1639.525072714178</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>69.56792729649275</v>
+        <v>737.4360292777944</v>
       </c>
       <c r="C31">
-        <v>30.46786796531902</v>
+        <v>57.31086376265372</v>
       </c>
       <c r="D31">
-        <v>4478.185715715468</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1611.885003288316</v>
+        <v>18812.59972048504</v>
       </c>
       <c r="F31">
-        <v>18.97482709356775</v>
+        <v>250.5610109717401</v>
       </c>
       <c r="G31">
-        <v>1922.921460472346</v>
+        <v>20879.8364813037</v>
       </c>
       <c r="H31">
-        <v>7.472125454310994</v>
+        <v>22.25589419906924</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>5053.994840634682</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <v>489.5588524145483</v>
+        <v>1105.032330623874</v>
       </c>
       <c r="C32">
-        <v>89.91023724119444</v>
+        <v>85.87912013972922</v>
       </c>
       <c r="D32">
-        <v>10171.08725560662</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>6660.787711605002</v>
+        <v>28190.28375190837</v>
       </c>
       <c r="F32">
-        <v>100.7899920520685</v>
+        <v>375.4603883251212</v>
       </c>
       <c r="G32">
-        <v>2366.846043430073</v>
+        <v>31287.99442112531</v>
       </c>
       <c r="H32">
-        <v>11.02506701581137</v>
+        <v>33.34998787759448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="H33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0.01809214988414609</v>
+      </c>
+      <c r="C34">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F34">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G34">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H34">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C35">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F35">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G35">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H35">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C36">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F36">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G36">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H36">
+        <v>0.0005460229195061149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C37">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F37">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G37">
+        <v>0.5122629166168718</v>
+      </c>
+      <c r="H37">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C38">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F38">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G38">
+        <v>0.5122629166168721</v>
+      </c>
+      <c r="H38">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0.01809214988414609</v>
+      </c>
+      <c r="C39">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F39">
+        <v>0.006147227943369482</v>
+      </c>
+      <c r="G39">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H39">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C40">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F40">
+        <v>0.006147227943369482</v>
+      </c>
+      <c r="G40">
+        <v>0.5122629166168718</v>
+      </c>
+      <c r="H40">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C41">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F41">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G41">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H41">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C42">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F42">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G42">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H42">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C43">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F43">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G43">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H43">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C44">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F44">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G44">
+        <v>0.5122629166168721</v>
+      </c>
+      <c r="H44">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C45">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F45">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G45">
+        <v>0.5122629166168718</v>
+      </c>
+      <c r="H45">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C46">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F46">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G46">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H46">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C47">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0.4615456261159234</v>
+      </c>
+      <c r="F47">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G47">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H47">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C48">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F48">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G48">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H48">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C49">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F49">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G49">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H49">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C50">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F50">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G50">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H50">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C51">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F51">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G51">
+        <v>0.5122629166168721</v>
+      </c>
+      <c r="H51">
+        <v>0.0005460229195061149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C52">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F52">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G52">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H52">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0.01809214988414609</v>
+      </c>
+      <c r="C53">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F53">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G53">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H53">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C54">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F54">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G54">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H54">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C55">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F55">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G55">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H55">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0.01809214988414609</v>
+      </c>
+      <c r="C56">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F56">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G56">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H56">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C57">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F57">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G57">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H57">
+        <v>0.0005460229195061147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C58">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0.4615456261159234</v>
+      </c>
+      <c r="F58">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G58">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H58">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C59">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F59">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G59">
+        <v>0.5122629166168721</v>
+      </c>
+      <c r="H59">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C60">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0.4615456261159234</v>
+      </c>
+      <c r="F60">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G60">
+        <v>0.5122629166168721</v>
+      </c>
+      <c r="H60">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C61">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F61">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G61">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H61">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C62">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F62">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G62">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H62">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C63">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0.4615456261159234</v>
+      </c>
+      <c r="F63">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G63">
+        <v>0.5122629166168721</v>
+      </c>
+      <c r="H63">
+        <v>0.0005460229195061148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C64">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F64">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G64">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H64">
+        <v>0.0005460229195061147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0.01809214988414608</v>
+      </c>
+      <c r="C65">
+        <v>0.001406056520182868</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0.4615456261159235</v>
+      </c>
+      <c r="F65">
+        <v>0.006147227943369481</v>
+      </c>
+      <c r="G65">
+        <v>0.512262916616872</v>
+      </c>
+      <c r="H65">
+        <v>0.0005460229195061148</v>
       </c>
     </row>
   </sheetData>
